--- a/parseresult.xlsx
+++ b/parseresult.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PythonProject\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="1125">
   <si>
     <t>No.</t>
   </si>
@@ -3394,20 +3399,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -3423,16 +3434,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3720,20 +3767,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L562"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="A549" sqref="A549:L562"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="79.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3771,7 +3817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3803,7 +3849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3835,7 +3881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -3867,7 +3913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3899,7 +3945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -3931,7 +3977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3963,7 +4009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3998,7 +4044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -4033,7 +4079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4065,7 +4111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -4097,7 +4143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -4129,7 +4175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -4161,7 +4207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -4193,7 +4239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -4228,7 +4274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4263,7 +4309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -4298,7 +4344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -4327,7 +4373,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -4359,7 +4405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -4391,7 +4437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -4423,7 +4469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -4455,7 +4501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -4487,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -4519,7 +4565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -4554,7 +4600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>90</v>
       </c>
@@ -4589,7 +4635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -4624,7 +4670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -4656,7 +4702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -4688,7 +4734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -4720,7 +4766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -4752,7 +4798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -4784,7 +4830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -4816,7 +4862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -4848,7 +4894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -4883,7 +4929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>120</v>
       </c>
@@ -4915,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -4947,7 +4993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>122</v>
       </c>
@@ -4979,7 +5025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>124</v>
       </c>
@@ -5011,7 +5057,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>125</v>
       </c>
@@ -5046,7 +5092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -5081,7 +5127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -5116,7 +5162,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>133</v>
       </c>
@@ -5151,7 +5197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -5186,7 +5232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -5218,7 +5264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -5250,7 +5296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -5285,7 +5331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>143</v>
       </c>
@@ -5317,7 +5363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -5352,7 +5398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -5387,7 +5433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>149</v>
       </c>
@@ -5422,7 +5468,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -5454,7 +5500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -5486,7 +5532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>154</v>
       </c>
@@ -5518,7 +5564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>155</v>
       </c>
@@ -5553,7 +5599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>157</v>
       </c>
@@ -5588,7 +5634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>159</v>
       </c>
@@ -5623,7 +5669,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>162</v>
       </c>
@@ -5655,7 +5701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>165</v>
       </c>
@@ -5690,7 +5736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>166</v>
       </c>
@@ -5725,7 +5771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -5760,7 +5806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>171</v>
       </c>
@@ -5795,7 +5841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>174</v>
       </c>
@@ -5830,7 +5876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>177</v>
       </c>
@@ -5865,7 +5911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>179</v>
       </c>
@@ -5900,7 +5946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -5935,7 +5981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -5970,7 +6016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>187</v>
       </c>
@@ -6002,7 +6048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -6034,7 +6080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>191</v>
       </c>
@@ -6066,7 +6112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>194</v>
       </c>
@@ -6101,7 +6147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -6136,7 +6182,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>200</v>
       </c>
@@ -6171,7 +6217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>204</v>
       </c>
@@ -6206,7 +6252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>208</v>
       </c>
@@ -6241,7 +6287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>210</v>
       </c>
@@ -6276,7 +6322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>213</v>
       </c>
@@ -6311,7 +6357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>215</v>
       </c>
@@ -6346,7 +6392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>218</v>
       </c>
@@ -6381,7 +6427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>220</v>
       </c>
@@ -6416,7 +6462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -6448,7 +6494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>224</v>
       </c>
@@ -6483,7 +6529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>226</v>
       </c>
@@ -6515,7 +6561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>229</v>
       </c>
@@ -6547,7 +6593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>231</v>
       </c>
@@ -6579,7 +6625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>233</v>
       </c>
@@ -6611,7 +6657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -6643,7 +6689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -6675,7 +6721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>240</v>
       </c>
@@ -6707,7 +6753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>242</v>
       </c>
@@ -6739,7 +6785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -6771,7 +6817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -6803,7 +6849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>247</v>
       </c>
@@ -6835,7 +6881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -6867,7 +6913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>251</v>
       </c>
@@ -6902,7 +6948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -6934,7 +6980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>255</v>
       </c>
@@ -6969,7 +7015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -7001,7 +7047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>259</v>
       </c>
@@ -7033,7 +7079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>260</v>
       </c>
@@ -7065,7 +7111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>261</v>
       </c>
@@ -7097,7 +7143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>262</v>
       </c>
@@ -7129,7 +7175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -7161,7 +7207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>264</v>
       </c>
@@ -7193,7 +7239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>265</v>
       </c>
@@ -7225,7 +7271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -7257,7 +7303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>267</v>
       </c>
@@ -7289,7 +7335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>268</v>
       </c>
@@ -7321,7 +7367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>269</v>
       </c>
@@ -7353,7 +7399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>270</v>
       </c>
@@ -7385,7 +7431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>271</v>
       </c>
@@ -7417,7 +7463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>272</v>
       </c>
@@ -7452,7 +7498,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>274</v>
       </c>
@@ -7484,7 +7530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>275</v>
       </c>
@@ -7516,7 +7562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>276</v>
       </c>
@@ -7548,7 +7594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>277</v>
       </c>
@@ -7580,7 +7626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>278</v>
       </c>
@@ -7615,7 +7661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>281</v>
       </c>
@@ -7647,7 +7693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>282</v>
       </c>
@@ -7679,7 +7725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>283</v>
       </c>
@@ -7711,7 +7757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>284</v>
       </c>
@@ -7743,7 +7789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>285</v>
       </c>
@@ -7775,7 +7821,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>286</v>
       </c>
@@ -7807,7 +7853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>287</v>
       </c>
@@ -7839,7 +7885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>288</v>
       </c>
@@ -7871,7 +7917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>289</v>
       </c>
@@ -7903,7 +7949,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>290</v>
       </c>
@@ -7935,7 +7981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>291</v>
       </c>
@@ -7967,7 +8013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>292</v>
       </c>
@@ -7999,7 +8045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>293</v>
       </c>
@@ -8031,7 +8077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>294</v>
       </c>
@@ -8063,7 +8109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>295</v>
       </c>
@@ -8095,7 +8141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>296</v>
       </c>
@@ -8127,7 +8173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>297</v>
       </c>
@@ -8159,7 +8205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>298</v>
       </c>
@@ -8191,7 +8237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>299</v>
       </c>
@@ -8223,7 +8269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>300</v>
       </c>
@@ -8258,7 +8304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>302</v>
       </c>
@@ -8290,7 +8336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>303</v>
       </c>
@@ -8322,7 +8368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>304</v>
       </c>
@@ -8354,7 +8400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -8389,7 +8435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>308</v>
       </c>
@@ -8421,7 +8467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>309</v>
       </c>
@@ -8453,7 +8499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>310</v>
       </c>
@@ -8485,7 +8531,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>311</v>
       </c>
@@ -8517,7 +8563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>312</v>
       </c>
@@ -8549,7 +8595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>313</v>
       </c>
@@ -8581,7 +8627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>314</v>
       </c>
@@ -8613,7 +8659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>315</v>
       </c>
@@ -8645,7 +8691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>316</v>
       </c>
@@ -8677,7 +8723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>317</v>
       </c>
@@ -8709,7 +8755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>318</v>
       </c>
@@ -8741,7 +8787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>319</v>
       </c>
@@ -8773,7 +8819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>320</v>
       </c>
@@ -8805,7 +8851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>321</v>
       </c>
@@ -8837,7 +8883,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>322</v>
       </c>
@@ -8869,7 +8915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>323</v>
       </c>
@@ -8901,7 +8947,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>324</v>
       </c>
@@ -8933,7 +8979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>325</v>
       </c>
@@ -8965,7 +9011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -8997,7 +9043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>327</v>
       </c>
@@ -9029,7 +9075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>328</v>
       </c>
@@ -9061,7 +9107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>329</v>
       </c>
@@ -9093,7 +9139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>330</v>
       </c>
@@ -9125,7 +9171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>331</v>
       </c>
@@ -9157,7 +9203,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>332</v>
       </c>
@@ -9189,7 +9235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -9221,7 +9267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>334</v>
       </c>
@@ -9253,7 +9299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>335</v>
       </c>
@@ -9285,7 +9331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -9320,7 +9366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -9352,7 +9398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>339</v>
       </c>
@@ -9384,7 +9430,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>340</v>
       </c>
@@ -9416,7 +9462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>341</v>
       </c>
@@ -9451,7 +9497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>344</v>
       </c>
@@ -9483,7 +9529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>345</v>
       </c>
@@ -9515,7 +9561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>346</v>
       </c>
@@ -9547,7 +9593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>347</v>
       </c>
@@ -9579,7 +9625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>348</v>
       </c>
@@ -9611,7 +9657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>349</v>
       </c>
@@ -9643,7 +9689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>350</v>
       </c>
@@ -9675,7 +9721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>351</v>
       </c>
@@ -9707,7 +9753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>352</v>
       </c>
@@ -9739,7 +9785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>353</v>
       </c>
@@ -9771,7 +9817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>354</v>
       </c>
@@ -9803,7 +9849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>355</v>
       </c>
@@ -9835,7 +9881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>356</v>
       </c>
@@ -9867,7 +9913,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>357</v>
       </c>
@@ -9899,7 +9945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>358</v>
       </c>
@@ -9931,7 +9977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>359</v>
       </c>
@@ -9963,7 +10009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>362</v>
       </c>
@@ -9995,7 +10041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>363</v>
       </c>
@@ -10027,7 +10073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>364</v>
       </c>
@@ -10059,7 +10105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -10091,7 +10137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>366</v>
       </c>
@@ -10123,7 +10169,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>367</v>
       </c>
@@ -10155,7 +10201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>368</v>
       </c>
@@ -10187,7 +10233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>369</v>
       </c>
@@ -10219,7 +10265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>370</v>
       </c>
@@ -10251,7 +10297,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>371</v>
       </c>
@@ -10283,7 +10329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>20</v>
       </c>
@@ -10315,7 +10361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>372</v>
       </c>
@@ -10350,7 +10396,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>374</v>
       </c>
@@ -10382,7 +10428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>375</v>
       </c>
@@ -10414,7 +10460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>376</v>
       </c>
@@ -10446,7 +10492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>377</v>
       </c>
@@ -10481,7 +10527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>380</v>
       </c>
@@ -10513,7 +10559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>381</v>
       </c>
@@ -10545,7 +10591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>382</v>
       </c>
@@ -10577,7 +10623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>383</v>
       </c>
@@ -10609,7 +10655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>384</v>
       </c>
@@ -10641,7 +10687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>385</v>
       </c>
@@ -10673,7 +10719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>386</v>
       </c>
@@ -10705,7 +10751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>387</v>
       </c>
@@ -10737,7 +10783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>388</v>
       </c>
@@ -10769,7 +10815,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>389</v>
       </c>
@@ -10801,7 +10847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>390</v>
       </c>
@@ -10833,7 +10879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>391</v>
       </c>
@@ -10865,7 +10911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>392</v>
       </c>
@@ -10897,7 +10943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>393</v>
       </c>
@@ -10929,7 +10975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>394</v>
       </c>
@@ -10961,7 +11007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>395</v>
       </c>
@@ -10993,7 +11039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>396</v>
       </c>
@@ -11025,7 +11071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>397</v>
       </c>
@@ -11057,7 +11103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>398</v>
       </c>
@@ -11089,7 +11135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>399</v>
       </c>
@@ -11124,7 +11170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>402</v>
       </c>
@@ -11159,7 +11205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>405</v>
       </c>
@@ -11194,7 +11240,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>407</v>
       </c>
@@ -11229,7 +11275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>410</v>
       </c>
@@ -11264,7 +11310,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>412</v>
       </c>
@@ -11299,7 +11345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>414</v>
       </c>
@@ -11331,7 +11377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>417</v>
       </c>
@@ -11363,7 +11409,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>418</v>
       </c>
@@ -11395,7 +11441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>419</v>
       </c>
@@ -11427,7 +11473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>420</v>
       </c>
@@ -11459,7 +11505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>421</v>
       </c>
@@ -11491,7 +11537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>422</v>
       </c>
@@ -11523,7 +11569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>423</v>
       </c>
@@ -11555,7 +11601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>424</v>
       </c>
@@ -11587,7 +11633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>425</v>
       </c>
@@ -11619,7 +11665,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>426</v>
       </c>
@@ -11651,7 +11697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>427</v>
       </c>
@@ -11683,7 +11729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>428</v>
       </c>
@@ -11715,7 +11761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>429</v>
       </c>
@@ -11747,7 +11793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>430</v>
       </c>
@@ -11779,7 +11825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>433</v>
       </c>
@@ -11811,7 +11857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>434</v>
       </c>
@@ -11843,7 +11889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>435</v>
       </c>
@@ -11875,7 +11921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>436</v>
       </c>
@@ -11907,7 +11953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>437</v>
       </c>
@@ -11939,7 +11985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>438</v>
       </c>
@@ -11971,7 +12017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>439</v>
       </c>
@@ -12003,7 +12049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>440</v>
       </c>
@@ -12035,7 +12081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>441</v>
       </c>
@@ -12067,7 +12113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>442</v>
       </c>
@@ -12099,7 +12145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>443</v>
       </c>
@@ -12131,7 +12177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>444</v>
       </c>
@@ -12163,7 +12209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>445</v>
       </c>
@@ -12195,7 +12241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>446</v>
       </c>
@@ -12227,7 +12273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>449</v>
       </c>
@@ -12259,7 +12305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>450</v>
       </c>
@@ -12291,7 +12337,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>451</v>
       </c>
@@ -12323,7 +12369,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>452</v>
       </c>
@@ -12355,7 +12401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>453</v>
       </c>
@@ -12387,7 +12433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>454</v>
       </c>
@@ -12419,7 +12465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>455</v>
       </c>
@@ -12451,7 +12497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>456</v>
       </c>
@@ -12483,7 +12529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>457</v>
       </c>
@@ -12515,7 +12561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>458</v>
       </c>
@@ -12547,7 +12593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>459</v>
       </c>
@@ -12579,7 +12625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>460</v>
       </c>
@@ -12611,7 +12657,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>461</v>
       </c>
@@ -12646,7 +12692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>464</v>
       </c>
@@ -12678,7 +12724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>465</v>
       </c>
@@ -12710,7 +12756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>466</v>
       </c>
@@ -12742,7 +12788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>467</v>
       </c>
@@ -12774,7 +12820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>468</v>
       </c>
@@ -12806,7 +12852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>469</v>
       </c>
@@ -12838,7 +12884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>470</v>
       </c>
@@ -12870,7 +12916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>471</v>
       </c>
@@ -12902,7 +12948,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>472</v>
       </c>
@@ -12934,7 +12980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>473</v>
       </c>
@@ -12966,7 +13012,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>474</v>
       </c>
@@ -12998,7 +13044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>475</v>
       </c>
@@ -13030,7 +13076,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>476</v>
       </c>
@@ -13062,7 +13108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>477</v>
       </c>
@@ -13097,7 +13143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>480</v>
       </c>
@@ -13129,7 +13175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>481</v>
       </c>
@@ -13161,7 +13207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>482</v>
       </c>
@@ -13193,7 +13239,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>483</v>
       </c>
@@ -13225,7 +13271,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>484</v>
       </c>
@@ -13257,7 +13303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>485</v>
       </c>
@@ -13289,7 +13335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>486</v>
       </c>
@@ -13321,7 +13367,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>487</v>
       </c>
@@ -13353,7 +13399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>488</v>
       </c>
@@ -13385,7 +13431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>489</v>
       </c>
@@ -13417,7 +13463,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>490</v>
       </c>
@@ -13449,7 +13495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>491</v>
       </c>
@@ -13481,7 +13527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>492</v>
       </c>
@@ -13513,7 +13559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>493</v>
       </c>
@@ -13545,7 +13591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>494</v>
       </c>
@@ -13577,7 +13623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>495</v>
       </c>
@@ -13612,7 +13658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>497</v>
       </c>
@@ -13647,7 +13693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>500</v>
       </c>
@@ -13682,7 +13728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>503</v>
       </c>
@@ -13717,7 +13763,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>505</v>
       </c>
@@ -13752,7 +13798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>507</v>
       </c>
@@ -13784,7 +13830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>509</v>
       </c>
@@ -13816,7 +13862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>512</v>
       </c>
@@ -13851,7 +13897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>514</v>
       </c>
@@ -13883,7 +13929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>517</v>
       </c>
@@ -13918,7 +13964,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>520</v>
       </c>
@@ -13953,7 +13999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>524</v>
       </c>
@@ -13985,7 +14031,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>527</v>
       </c>
@@ -14020,7 +14066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>530</v>
       </c>
@@ -14052,7 +14098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>532</v>
       </c>
@@ -14087,7 +14133,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>535</v>
       </c>
@@ -14119,7 +14165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>537</v>
       </c>
@@ -14154,7 +14200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>539</v>
       </c>
@@ -14186,7 +14232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>541</v>
       </c>
@@ -14221,7 +14267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>543</v>
       </c>
@@ -14253,7 +14299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>545</v>
       </c>
@@ -14288,7 +14334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>547</v>
       </c>
@@ -14320,7 +14366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>549</v>
       </c>
@@ -14355,7 +14401,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>551</v>
       </c>
@@ -14387,7 +14433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>553</v>
       </c>
@@ -14419,7 +14465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>556</v>
       </c>
@@ -14454,7 +14500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>558</v>
       </c>
@@ -14486,7 +14532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>560</v>
       </c>
@@ -14518,7 +14564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>563</v>
       </c>
@@ -14553,7 +14599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>565</v>
       </c>
@@ -14585,7 +14631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>567</v>
       </c>
@@ -14620,7 +14666,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>569</v>
       </c>
@@ -14655,7 +14701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>572</v>
       </c>
@@ -14687,7 +14733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>574</v>
       </c>
@@ -14722,7 +14768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>576</v>
       </c>
@@ -14757,7 +14803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>579</v>
       </c>
@@ -14789,7 +14835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>581</v>
       </c>
@@ -14824,7 +14870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>583</v>
       </c>
@@ -14859,7 +14905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>586</v>
       </c>
@@ -14894,7 +14940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>589</v>
       </c>
@@ -14929,7 +14975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>591</v>
       </c>
@@ -14964,7 +15010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>593</v>
       </c>
@@ -14999,7 +15045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>596</v>
       </c>
@@ -15034,7 +15080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>598</v>
       </c>
@@ -15069,7 +15115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>600</v>
       </c>
@@ -15104,7 +15150,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>603</v>
       </c>
@@ -15139,7 +15185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>605</v>
       </c>
@@ -15174,7 +15220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>607</v>
       </c>
@@ -15209,7 +15255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>610</v>
       </c>
@@ -15241,7 +15287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>613</v>
       </c>
@@ -15276,7 +15322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>617</v>
       </c>
@@ -15311,7 +15357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>620</v>
       </c>
@@ -15343,7 +15389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>623</v>
       </c>
@@ -15378,7 +15424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>627</v>
       </c>
@@ -15413,7 +15459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>629</v>
       </c>
@@ -15445,7 +15491,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>631</v>
       </c>
@@ -15480,7 +15526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>634</v>
       </c>
@@ -15515,7 +15561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>638</v>
       </c>
@@ -15550,7 +15596,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>641</v>
       </c>
@@ -15585,7 +15631,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>643</v>
       </c>
@@ -15617,7 +15663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>645</v>
       </c>
@@ -15649,7 +15695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>646</v>
       </c>
@@ -15684,7 +15730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>648</v>
       </c>
@@ -15719,7 +15765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>650</v>
       </c>
@@ -15754,7 +15800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>653</v>
       </c>
@@ -15786,7 +15832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>656</v>
       </c>
@@ -15821,7 +15867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>658</v>
       </c>
@@ -15856,7 +15902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>661</v>
       </c>
@@ -15891,7 +15937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>664</v>
       </c>
@@ -15923,7 +15969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>667</v>
       </c>
@@ -15958,7 +16004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>669</v>
       </c>
@@ -15993,7 +16039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>672</v>
       </c>
@@ -16028,7 +16074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>675</v>
       </c>
@@ -16060,7 +16106,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>678</v>
       </c>
@@ -16095,7 +16141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>680</v>
       </c>
@@ -16130,7 +16176,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>683</v>
       </c>
@@ -16165,7 +16211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>686</v>
       </c>
@@ -16197,7 +16243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>689</v>
       </c>
@@ -16232,7 +16278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>691</v>
       </c>
@@ -16267,7 +16313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>694</v>
       </c>
@@ -16302,7 +16348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>697</v>
       </c>
@@ -16334,7 +16380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>700</v>
       </c>
@@ -16369,7 +16415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>702</v>
       </c>
@@ -16404,7 +16450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>705</v>
       </c>
@@ -16439,7 +16485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>708</v>
       </c>
@@ -16471,7 +16517,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>711</v>
       </c>
@@ -16506,7 +16552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>713</v>
       </c>
@@ -16541,7 +16587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>716</v>
       </c>
@@ -16576,7 +16622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>719</v>
       </c>
@@ -16608,7 +16654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>722</v>
       </c>
@@ -16643,7 +16689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>724</v>
       </c>
@@ -16678,7 +16724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>727</v>
       </c>
@@ -16713,7 +16759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>729</v>
       </c>
@@ -16748,7 +16794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>732</v>
       </c>
@@ -16783,7 +16829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>735</v>
       </c>
@@ -16818,7 +16864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>738</v>
       </c>
@@ -16853,7 +16899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>741</v>
       </c>
@@ -16888,7 +16934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>743</v>
       </c>
@@ -16923,7 +16969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>745</v>
       </c>
@@ -16955,7 +17001,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>747</v>
       </c>
@@ -16984,7 +17030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>749</v>
       </c>
@@ -17019,7 +17065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>751</v>
       </c>
@@ -17054,7 +17100,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>756</v>
       </c>
@@ -17089,7 +17135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>759</v>
       </c>
@@ -17121,7 +17167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>761</v>
       </c>
@@ -17153,7 +17199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>764</v>
       </c>
@@ -17188,7 +17234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>766</v>
       </c>
@@ -17223,7 +17269,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>770</v>
       </c>
@@ -17255,7 +17301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>773</v>
       </c>
@@ -17287,7 +17333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>774</v>
       </c>
@@ -17319,7 +17365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>777</v>
       </c>
@@ -17354,7 +17400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>780</v>
       </c>
@@ -17389,7 +17435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>783</v>
       </c>
@@ -17424,7 +17470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>785</v>
       </c>
@@ -17459,7 +17505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>788</v>
       </c>
@@ -17494,7 +17540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>790</v>
       </c>
@@ -17529,7 +17575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>793</v>
       </c>
@@ -17564,7 +17610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>795</v>
       </c>
@@ -17599,7 +17645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>797</v>
       </c>
@@ -17631,7 +17677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>798</v>
       </c>
@@ -17663,7 +17709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>801</v>
       </c>
@@ -17695,7 +17741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>804</v>
       </c>
@@ -17730,7 +17776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>807</v>
       </c>
@@ -17765,7 +17811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>810</v>
       </c>
@@ -17800,7 +17846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>812</v>
       </c>
@@ -17835,7 +17881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>815</v>
       </c>
@@ -17870,7 +17916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>817</v>
       </c>
@@ -17905,7 +17951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>820</v>
       </c>
@@ -17940,7 +17986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>822</v>
       </c>
@@ -17975,7 +18021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>825</v>
       </c>
@@ -18007,7 +18053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>828</v>
       </c>
@@ -18042,7 +18088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>830</v>
       </c>
@@ -18077,7 +18123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>833</v>
       </c>
@@ -18112,7 +18158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>836</v>
       </c>
@@ -18147,7 +18193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>839</v>
       </c>
@@ -18182,7 +18228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>841</v>
       </c>
@@ -18217,7 +18263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>844</v>
       </c>
@@ -18252,7 +18298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>846</v>
       </c>
@@ -18287,7 +18333,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>848</v>
       </c>
@@ -18319,7 +18365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>851</v>
       </c>
@@ -18354,7 +18400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>853</v>
       </c>
@@ -18389,7 +18435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>856</v>
       </c>
@@ -18424,7 +18470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>858</v>
       </c>
@@ -18459,7 +18505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>861</v>
       </c>
@@ -18494,7 +18540,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>864</v>
       </c>
@@ -18529,7 +18575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>867</v>
       </c>
@@ -18564,7 +18610,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>869</v>
       </c>
@@ -18599,7 +18645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>873</v>
       </c>
@@ -18634,7 +18680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>876</v>
       </c>
@@ -18669,7 +18715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>878</v>
       </c>
@@ -18704,7 +18750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>881</v>
       </c>
@@ -18739,7 +18785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>883</v>
       </c>
@@ -18774,7 +18820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>886</v>
       </c>
@@ -18806,7 +18852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>888</v>
       </c>
@@ -18841,7 +18887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>890</v>
       </c>
@@ -18876,7 +18922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>894</v>
       </c>
@@ -18908,7 +18954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>896</v>
       </c>
@@ -18943,7 +18989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>898</v>
       </c>
@@ -18978,7 +19024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>900</v>
       </c>
@@ -19013,7 +19059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>902</v>
       </c>
@@ -19045,7 +19091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>904</v>
       </c>
@@ -19080,7 +19126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>905</v>
       </c>
@@ -19112,7 +19158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>907</v>
       </c>
@@ -19147,7 +19193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>911</v>
       </c>
@@ -19179,7 +19225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>913</v>
       </c>
@@ -19211,7 +19257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>916</v>
       </c>
@@ -19243,7 +19289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>918</v>
       </c>
@@ -19275,7 +19321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>921</v>
       </c>
@@ -19310,7 +19356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>923</v>
       </c>
@@ -19345,7 +19391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>926</v>
       </c>
@@ -19377,7 +19423,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>928</v>
       </c>
@@ -19412,7 +19458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>930</v>
       </c>
@@ -19447,7 +19493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>932</v>
       </c>
@@ -19479,7 +19525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>935</v>
       </c>
@@ -19511,7 +19557,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>937</v>
       </c>
@@ -19543,7 +19589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>940</v>
       </c>
@@ -19575,7 +19621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>943</v>
       </c>
@@ -19610,7 +19656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>945</v>
       </c>
@@ -19645,7 +19691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>946</v>
       </c>
@@ -19677,7 +19723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>948</v>
       </c>
@@ -19712,7 +19758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>951</v>
       </c>
@@ -19744,7 +19790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>954</v>
       </c>
@@ -19776,7 +19822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>957</v>
       </c>
@@ -19808,7 +19854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>959</v>
       </c>
@@ -19840,7 +19886,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>961</v>
       </c>
@@ -19872,7 +19918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>963</v>
       </c>
@@ -19904,7 +19950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>966</v>
       </c>
@@ -19936,7 +19982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>967</v>
       </c>
@@ -19971,7 +20017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>971</v>
       </c>
@@ -20003,7 +20049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>974</v>
       </c>
@@ -20035,7 +20081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>977</v>
       </c>
@@ -20070,7 +20116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>979</v>
       </c>
@@ -20105,7 +20151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>983</v>
       </c>
@@ -20137,7 +20183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>985</v>
       </c>
@@ -20172,7 +20218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>989</v>
       </c>
@@ -20207,7 +20253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>993</v>
       </c>
@@ -20242,7 +20288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>996</v>
       </c>
@@ -20274,7 +20320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>999</v>
       </c>
@@ -20306,7 +20352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>1001</v>
       </c>
@@ -20338,7 +20384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>1004</v>
       </c>
@@ -20370,7 +20416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>1006</v>
       </c>
@@ -20405,7 +20451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>1008</v>
       </c>
@@ -20440,7 +20486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>1011</v>
       </c>
@@ -20472,7 +20518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>1014</v>
       </c>
@@ -20507,7 +20553,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>1018</v>
       </c>
@@ -20542,7 +20588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>1020</v>
       </c>
@@ -20577,7 +20623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>1022</v>
       </c>
@@ -20609,7 +20655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>1023</v>
       </c>
@@ -20644,7 +20690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>1025</v>
       </c>
@@ -20679,7 +20725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>1027</v>
       </c>
@@ -20714,7 +20760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:12">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>1029</v>
       </c>
@@ -20749,7 +20795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="514" spans="1:12">
+    <row r="514" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>1031</v>
       </c>
@@ -20784,7 +20830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="515" spans="1:12">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>1033</v>
       </c>
@@ -20819,7 +20865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="516" spans="1:12">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>1035</v>
       </c>
@@ -20854,7 +20900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="517" spans="1:12">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>1037</v>
       </c>
@@ -20889,7 +20935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>1039</v>
       </c>
@@ -20924,7 +20970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>1041</v>
       </c>
@@ -20959,7 +21005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="520" spans="1:12">
+    <row r="520" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>1043</v>
       </c>
@@ -20994,7 +21040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="521" spans="1:12">
+    <row r="521" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>1045</v>
       </c>
@@ -21029,7 +21075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:12">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>1047</v>
       </c>
@@ -21064,7 +21110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="523" spans="1:12">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>1049</v>
       </c>
@@ -21099,7 +21145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>1051</v>
       </c>
@@ -21134,7 +21180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>1053</v>
       </c>
@@ -21169,7 +21215,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="526" spans="1:12">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>1055</v>
       </c>
@@ -21204,7 +21250,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="527" spans="1:12">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>1057</v>
       </c>
@@ -21239,7 +21285,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="528" spans="1:12">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>1059</v>
       </c>
@@ -21274,7 +21320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="529" spans="1:12">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>1061</v>
       </c>
@@ -21309,7 +21355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="530" spans="1:12">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>1063</v>
       </c>
@@ -21344,7 +21390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:12">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>1065</v>
       </c>
@@ -21379,7 +21425,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="532" spans="1:12">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>1067</v>
       </c>
@@ -21414,7 +21460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="533" spans="1:12">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>1069</v>
       </c>
@@ -21449,7 +21495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="534" spans="1:12">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>1071</v>
       </c>
@@ -21484,7 +21530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:12">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>1073</v>
       </c>
@@ -21519,7 +21565,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="536" spans="1:12">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>1074</v>
       </c>
@@ -21554,7 +21600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="537" spans="1:12">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>1076</v>
       </c>
@@ -21589,7 +21635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="538" spans="1:12">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>1078</v>
       </c>
@@ -21624,7 +21670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="539" spans="1:12">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>1080</v>
       </c>
@@ -21659,7 +21705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="540" spans="1:12">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>1082</v>
       </c>
@@ -21694,7 +21740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="541" spans="1:12">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>1083</v>
       </c>
@@ -21726,7 +21772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="542" spans="1:12">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>1085</v>
       </c>
@@ -21761,7 +21807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="543" spans="1:12">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>1086</v>
       </c>
@@ -21796,7 +21842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:12">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>1087</v>
       </c>
@@ -21828,7 +21874,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="545" spans="1:12">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>1088</v>
       </c>
@@ -21863,7 +21909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="546" spans="1:12">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>1089</v>
       </c>
@@ -21898,7 +21944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:12">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>1090</v>
       </c>
@@ -21930,7 +21976,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="548" spans="1:12">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>1091</v>
       </c>
@@ -21965,7 +22011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="549" spans="1:12">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>1092</v>
       </c>
@@ -21997,7 +22043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="550" spans="1:12">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>1096</v>
       </c>
@@ -22029,7 +22075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="551" spans="1:12">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>1098</v>
       </c>
@@ -22061,7 +22107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="552" spans="1:12">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>1099</v>
       </c>
@@ -22093,7 +22139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="553" spans="1:12">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>1101</v>
       </c>
@@ -22125,7 +22171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="554" spans="1:12">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>1104</v>
       </c>
@@ -22154,7 +22200,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="555" spans="1:12">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>1106</v>
       </c>
@@ -22186,7 +22232,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="556" spans="1:12">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>1109</v>
       </c>
@@ -22215,7 +22261,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="557" spans="1:12">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>1110</v>
       </c>
@@ -22247,7 +22293,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="558" spans="1:12">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>1112</v>
       </c>
@@ -22279,7 +22325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="559" spans="1:12">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>1113</v>
       </c>
@@ -22311,7 +22357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="560" spans="1:12">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>1115</v>
       </c>
@@ -22346,7 +22392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="561" spans="1:12">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>1118</v>
       </c>
@@ -22381,7 +22427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>1122</v>
       </c>
@@ -22417,6 +22463,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>